--- a/汽柴煤油2.0/eta/山东丙烯主流价-LPG指数_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/山东丙烯主流价-LPG指数_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1888.9426</v>
+        <v>1795.3047</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2143.6923</v>
+        <v>2103</v>
       </c>
       <c r="C3" t="n">
-        <v>2028.2893</v>
+        <v>1982.0935</v>
       </c>
     </row>
     <row r="4">
